--- a/Documentation/Data_Dictionary.xlsx
+++ b/Documentation/Data_Dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Barny\Documents\GitHub\Pooled_Testing_HIV\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5FEDC1-30B0-4373-9E3D-934728E65326}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8D3A7C-5D51-4AD2-92D5-14CBCE13181A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3525" yWindow="675" windowWidth="20235" windowHeight="11955" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3135" yWindow="735" windowWidth="20235" windowHeight="11955" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="clean_data" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="419">
   <si>
     <t>Variable Name</t>
   </si>
@@ -737,9 +737,6 @@
 else vl72=log10(vl_mth72)</t>
   </si>
   <si>
-    <t>age16</t>
-  </si>
-  <si>
     <t>age35</t>
   </si>
   <si>
@@ -749,22 +746,10 @@
     <t>age65</t>
   </si>
   <si>
-    <t>Indicator if the subject was &lt;= 16 years old at baseline</t>
-  </si>
-  <si>
-    <t>Indicator if the subject was &gt; 16 years and &lt;= 35 at baseline</t>
-  </si>
-  <si>
     <t>Indicator if the subject was &gt; 35 years and &lt;= 50 at baseline</t>
   </si>
   <si>
     <t>Indicator if the subject was &gt; 50 years old at baseline</t>
-  </si>
-  <si>
-    <t>set to 1 if ageyrs &lt;= 16, else set to 0</t>
-  </si>
-  <si>
-    <t>set to 1 if 16 &lt; ageyrs &lt;= 35, else set to 0</t>
   </si>
   <si>
     <t>set to 1 if 35 &lt; ageyrs &lt;= 50, else set to 0</t>
@@ -1462,6 +1447,12 @@
          - Uganda_SimData_train_SD0_reverse.R: started with Uganda_SimData_SD0.R dataset, and reversed direction of covariates, explained below
 </t>
     </r>
+  </si>
+  <si>
+    <t>Indicator if the subject was &gt;= 18 years and &lt;= 35 at baseline</t>
+  </si>
+  <si>
+    <t>set to 1 if 18 &lt;= ageyrs &lt;= 35, else set to 0</t>
   </si>
 </sst>
 </file>
@@ -2052,10 +2043,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q118"/>
+  <dimension ref="A1:Q117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2071,7 +2062,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -2443,7 +2434,7 @@
         <v>8</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>45</v>
@@ -2601,7 +2592,7 @@
         <v>16</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>46</v>
@@ -2620,7 +2611,7 @@
         <v>17</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>46</v>
@@ -3368,7 +3359,7 @@
         <v>218</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>222</v>
+        <v>417</v>
       </c>
       <c r="C68" s="9" t="s">
         <v>195</v>
@@ -3380,7 +3371,7 @@
         <v>112</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>226</v>
+        <v>418</v>
       </c>
       <c r="G68" s="9"/>
     </row>
@@ -3389,7 +3380,7 @@
         <v>219</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C69" s="9" t="s">
         <v>195</v>
@@ -3401,7 +3392,7 @@
         <v>112</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G69" s="9"/>
     </row>
@@ -3410,7 +3401,7 @@
         <v>220</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>195</v>
@@ -3422,685 +3413,673 @@
         <v>112</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G70" s="9"/>
     </row>
     <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>195</v>
+        <v>111</v>
       </c>
       <c r="D71" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E71" s="8" t="s">
         <v>112</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="G71" s="9"/>
     </row>
     <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C72" s="9" t="s">
         <v>111</v>
       </c>
       <c r="D72" s="14">
-        <v>3</v>
+        <v>450</v>
       </c>
       <c r="E72" s="8" t="s">
         <v>112</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G72" s="9"/>
     </row>
     <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="C73" s="9" t="s">
         <v>111</v>
       </c>
       <c r="D73" s="14">
-        <v>450</v>
+        <v>105</v>
       </c>
       <c r="E73" s="8" t="s">
         <v>112</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G73" s="9"/>
     </row>
     <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>111</v>
       </c>
       <c r="D74" s="14">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>112</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G74" s="9"/>
     </row>
     <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>111</v>
       </c>
       <c r="D75" s="14">
-        <v>79</v>
+        <v>558</v>
       </c>
       <c r="E75" s="8" t="s">
         <v>112</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G75" s="9"/>
     </row>
     <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C76" s="9" t="s">
         <v>111</v>
       </c>
       <c r="D76" s="14">
-        <v>558</v>
+        <v>313</v>
       </c>
       <c r="E76" s="8" t="s">
         <v>112</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G76" s="9"/>
     </row>
     <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C77" s="9" t="s">
         <v>111</v>
       </c>
       <c r="D77" s="14">
-        <v>313</v>
+        <v>861</v>
       </c>
       <c r="E77" s="8" t="s">
         <v>112</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G77" s="9"/>
     </row>
     <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C78" s="9" t="s">
         <v>111</v>
       </c>
       <c r="D78" s="14">
-        <v>861</v>
+        <v>736</v>
       </c>
       <c r="E78" s="8" t="s">
         <v>112</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G78" s="9"/>
     </row>
     <row r="79" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C79" s="9" t="s">
         <v>111</v>
       </c>
       <c r="D79" s="14">
-        <v>736</v>
+        <v>1309</v>
       </c>
       <c r="E79" s="8" t="s">
         <v>112</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G79" s="9"/>
     </row>
     <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C80" s="9" t="s">
         <v>111</v>
       </c>
       <c r="D80" s="14">
-        <v>1309</v>
+        <v>1077</v>
       </c>
       <c r="E80" s="8" t="s">
         <v>112</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G80" s="9"/>
     </row>
     <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C81" s="9" t="s">
         <v>111</v>
       </c>
       <c r="D81" s="14">
-        <v>1077</v>
+        <v>1671</v>
       </c>
       <c r="E81" s="8" t="s">
         <v>112</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G81" s="9"/>
     </row>
     <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C82" s="9" t="s">
         <v>111</v>
       </c>
       <c r="D82" s="14">
-        <v>1671</v>
+        <v>1476</v>
       </c>
       <c r="E82" s="8" t="s">
         <v>112</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G82" s="9"/>
     </row>
     <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C83" s="9" t="s">
         <v>111</v>
       </c>
       <c r="D83" s="14">
-        <v>1476</v>
+        <v>2044</v>
       </c>
       <c r="E83" s="8" t="s">
         <v>112</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G83" s="9"/>
     </row>
     <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C84" s="9" t="s">
         <v>111</v>
       </c>
       <c r="D84" s="14">
-        <v>2044</v>
+        <v>1787</v>
       </c>
       <c r="E84" s="8" t="s">
         <v>112</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G84" s="9"/>
     </row>
-    <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="10" t="s">
-        <v>180</v>
+    <row r="85" spans="1:7" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>192</v>
+        <v>110</v>
       </c>
       <c r="C85" s="9" t="s">
         <v>111</v>
       </c>
       <c r="D85" s="14">
-        <v>1787</v>
-      </c>
-      <c r="E85" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="E85" s="9" t="s">
         <v>112</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="G85" s="9"/>
-    </row>
-    <row r="86" spans="1:7" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C86" s="9" t="s">
         <v>111</v>
       </c>
       <c r="D86" s="14">
-        <v>450</v>
+        <v>105</v>
       </c>
       <c r="E86" s="9" t="s">
         <v>112</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C87" s="9" t="s">
         <v>111</v>
       </c>
       <c r="D87" s="14">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="E87" s="9" t="s">
         <v>112</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C88" s="9" t="s">
         <v>111</v>
       </c>
       <c r="D88" s="14">
-        <v>79</v>
+        <v>558</v>
       </c>
       <c r="E88" s="9" t="s">
         <v>112</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C89" s="9" t="s">
         <v>111</v>
       </c>
       <c r="D89" s="14">
-        <v>558</v>
+        <v>313</v>
       </c>
       <c r="E89" s="9" t="s">
         <v>112</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C90" s="9" t="s">
         <v>111</v>
       </c>
       <c r="D90" s="14">
-        <v>313</v>
+        <v>861</v>
       </c>
       <c r="E90" s="9" t="s">
         <v>112</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C91" s="9" t="s">
         <v>111</v>
       </c>
       <c r="D91" s="14">
-        <v>861</v>
+        <v>736</v>
       </c>
       <c r="E91" s="9" t="s">
         <v>112</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C92" s="9" t="s">
         <v>111</v>
       </c>
       <c r="D92" s="14">
-        <v>736</v>
+        <v>1309</v>
       </c>
       <c r="E92" s="9" t="s">
         <v>112</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C93" s="9" t="s">
         <v>111</v>
       </c>
       <c r="D93" s="14">
-        <v>1309</v>
+        <v>1077</v>
       </c>
       <c r="E93" s="9" t="s">
         <v>112</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C94" s="9" t="s">
         <v>111</v>
       </c>
       <c r="D94" s="14">
-        <v>1077</v>
+        <v>1671</v>
       </c>
       <c r="E94" s="9" t="s">
         <v>112</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C95" s="9" t="s">
         <v>111</v>
       </c>
       <c r="D95" s="14">
-        <v>1671</v>
+        <v>1476</v>
       </c>
       <c r="E95" s="9" t="s">
         <v>112</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C96" s="9" t="s">
         <v>111</v>
       </c>
       <c r="D96" s="14">
-        <v>1476</v>
+        <v>2044</v>
       </c>
       <c r="E96" s="9" t="s">
         <v>112</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C97" s="9" t="s">
         <v>111</v>
       </c>
       <c r="D97" s="14">
-        <v>2044</v>
+        <v>1787</v>
       </c>
       <c r="E97" s="9" t="s">
         <v>112</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="D98" s="14">
-        <v>1787</v>
+        <v>56</v>
       </c>
       <c r="E98" s="9" t="s">
         <v>112</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="G98" s="9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="225" customHeight="1" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="G98" s="9"/>
+    </row>
+    <row r="99" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="C99" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D99" s="14">
+        <v>0</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="G99" s="9"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C100" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="D99" s="14">
-        <v>56</v>
-      </c>
-      <c r="E99" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F99" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="G99" s="9"/>
-    </row>
-    <row r="100" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A100" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>195</v>
-      </c>
       <c r="D100" s="14">
-        <v>0</v>
+        <v>2093</v>
       </c>
       <c r="E100" s="9" t="s">
         <v>112</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G100" s="9"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="B101" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="C101" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D101" s="14">
-        <v>2093</v>
-      </c>
-      <c r="E101" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F101" s="9" t="s">
-        <v>198</v>
-      </c>
+      <c r="A101" s="9"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
       <c r="G101" s="9"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -4246,15 +4225,6 @@
       <c r="E117" s="9"/>
       <c r="F117" s="9"/>
       <c r="G117" s="9"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="9"/>
-      <c r="B118" s="9"/>
-      <c r="C118" s="9"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="9"/>
-      <c r="F118" s="9"/>
-      <c r="G118" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4268,10 +4238,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2B16D2-2113-49E9-8EE2-6C1440FD0E5A}">
-  <dimension ref="A1:G163"/>
+  <dimension ref="A1:G162"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4287,7 +4257,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -4450,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -4469,17 +4439,17 @@
         <v>0</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>195</v>
@@ -4491,16 +4461,16 @@
         <v>112</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>195</v>
@@ -4512,7 +4482,7 @@
         <v>112</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G20" s="9"/>
     </row>
@@ -4530,7 +4500,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -4540,7 +4510,7 @@
         <v>218</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>222</v>
+        <v>417</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>195</v>
@@ -4549,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -4559,7 +4529,7 @@
         <v>219</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>195</v>
@@ -4568,7 +4538,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -4578,7 +4548,7 @@
         <v>220</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>195</v>
@@ -4587,55 +4557,57 @@
         <v>0</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>221</v>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>225</v>
+        <v>65</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>195</v>
+        <v>45</v>
       </c>
       <c r="D25" s="14">
         <v>0</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>7</v>
+        <v>235</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>65</v>
+        <v>252</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="D26" s="14">
         <v>0</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="F26" s="9"/>
+        <v>112</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>269</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>195</v>
@@ -4647,16 +4619,16 @@
         <v>112</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>195</v>
@@ -4668,16 +4640,16 @@
         <v>112</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>195</v>
@@ -4689,16 +4661,16 @@
         <v>112</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>195</v>
@@ -4710,16 +4682,16 @@
         <v>112</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>195</v>
@@ -4731,16 +4703,16 @@
         <v>112</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>195</v>
@@ -4752,16 +4724,16 @@
         <v>112</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>195</v>
@@ -4773,16 +4745,16 @@
         <v>112</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G33" s="9"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>195</v>
@@ -4794,16 +4766,16 @@
         <v>112</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G34" s="9"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>195</v>
@@ -4815,16 +4787,16 @@
         <v>112</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G35" s="9"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>195</v>
@@ -4836,16 +4808,16 @@
         <v>112</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G36" s="9"/>
     </row>
-    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>195</v>
@@ -4857,16 +4829,16 @@
         <v>112</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G37" s="9"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>195</v>
@@ -4878,16 +4850,16 @@
         <v>112</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G38" s="9"/>
     </row>
-    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>195</v>
@@ -4899,16 +4871,16 @@
         <v>112</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G39" s="9"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>195</v>
@@ -4920,16 +4892,16 @@
         <v>112</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G40" s="9"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>195</v>
@@ -4941,16 +4913,16 @@
         <v>112</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G41" s="9"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>195</v>
@@ -4962,56 +4934,56 @@
         <v>112</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>256</v>
+        <v>8</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>273</v>
+        <v>227</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>195</v>
+        <v>45</v>
       </c>
       <c r="D43" s="14">
         <v>0</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>290</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="F43" s="9"/>
       <c r="G43" s="9"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>8</v>
+        <v>286</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>232</v>
+        <v>291</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="D44" s="14">
         <v>0</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="F44" s="9"/>
+        <v>112</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>296</v>
+      </c>
       <c r="G44" s="9"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>195</v>
@@ -5023,16 +4995,16 @@
         <v>112</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G45" s="9"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>195</v>
@@ -5044,16 +5016,16 @@
         <v>112</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G46" s="9"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>195</v>
@@ -5065,16 +5037,16 @@
         <v>112</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G47" s="9"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>195</v>
@@ -5086,56 +5058,56 @@
         <v>112</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G48" s="9"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>295</v>
+        <v>9</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>300</v>
+        <v>66</v>
       </c>
       <c r="C49" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" s="14">
+        <v>5</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+    </row>
+    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="C50" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="D49" s="14">
-        <v>0</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="G49" s="9"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>45</v>
-      </c>
       <c r="D50" s="14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F50" s="9"/>
+        <v>112</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>327</v>
+      </c>
       <c r="G50" s="9"/>
     </row>
     <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>195</v>
@@ -5147,16 +5119,16 @@
         <v>112</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G51" s="9"/>
     </row>
     <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>195</v>
@@ -5168,16 +5140,16 @@
         <v>112</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G52" s="9"/>
     </row>
     <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>195</v>
@@ -5189,16 +5161,16 @@
         <v>112</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G53" s="9"/>
     </row>
     <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>195</v>
@@ -5210,16 +5182,16 @@
         <v>112</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G54" s="9"/>
     </row>
     <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>195</v>
@@ -5231,16 +5203,16 @@
         <v>112</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G55" s="9"/>
     </row>
     <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>195</v>
@@ -5252,16 +5224,16 @@
         <v>112</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G56" s="9"/>
     </row>
     <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C57" s="9" t="s">
         <v>195</v>
@@ -5273,16 +5245,16 @@
         <v>112</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G57" s="9"/>
     </row>
     <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>195</v>
@@ -5294,16 +5266,16 @@
         <v>112</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G58" s="9"/>
     </row>
     <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>195</v>
@@ -5315,16 +5287,16 @@
         <v>112</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G59" s="9"/>
     </row>
     <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>195</v>
@@ -5336,16 +5308,16 @@
         <v>112</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G60" s="9"/>
     </row>
     <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C61" s="9" t="s">
         <v>195</v>
@@ -5357,16 +5329,16 @@
         <v>112</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G61" s="9"/>
     </row>
     <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>195</v>
@@ -5378,41 +5350,43 @@
         <v>112</v>
       </c>
       <c r="F62" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="G62" s="9"/>
+    </row>
+    <row r="63" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D63" s="14">
+        <v>0</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="G63" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="G62" s="9"/>
-    </row>
-    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="C63" s="9" t="s">
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="C64" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="D63" s="14">
-        <v>0</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="G63" s="9"/>
-    </row>
-    <row r="64" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>111</v>
-      </c>
       <c r="D64" s="14">
         <v>0</v>
       </c>
@@ -5420,18 +5394,16 @@
         <v>112</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="G64" s="9" t="s">
-        <v>348</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="G64" s="9"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="B65" s="9" t="s">
         <v>349</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>353</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>195</v>
@@ -5443,16 +5415,16 @@
         <v>112</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G65" s="9"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="B66" s="9" t="s">
         <v>350</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>354</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>195</v>
@@ -5464,16 +5436,16 @@
         <v>112</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G66" s="9"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="B67" s="9" t="s">
         <v>351</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>355</v>
       </c>
       <c r="C67" s="9" t="s">
         <v>195</v>
@@ -5485,113 +5457,115 @@
         <v>112</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G67" s="9"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>352</v>
+        <v>10</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>356</v>
+        <v>67</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>195</v>
+        <v>46</v>
       </c>
       <c r="D68" s="14">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F68" s="9" t="s">
-        <v>360</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="F68" s="9"/>
       <c r="G68" s="9"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>67</v>
+        <v>356</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="D69" s="14">
         <v>15</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>361</v>
+        <v>68</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="D70" s="14">
-        <v>15</v>
+        <v>282</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
-        <v>12</v>
+        <v>201</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>68</v>
+        <v>357</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="D71" s="14">
         <v>282</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>201</v>
+        <v>358</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C72" s="9" t="s">
         <v>111</v>
       </c>
       <c r="D72" s="14">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-    </row>
-    <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C73" s="9" t="s">
         <v>111</v>
@@ -5603,39 +5577,37 @@
         <v>112</v>
       </c>
       <c r="F73" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="G73" s="9"/>
+    </row>
+    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="G73" s="9" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="9" t="s">
+      <c r="B74" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="C74" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D74" s="14">
+        <v>0</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F74" s="9" t="s">
         <v>367</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D74" s="14">
-        <v>0</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F74" s="9" t="s">
-        <v>368</v>
       </c>
       <c r="G74" s="9"/>
     </row>
     <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>195</v>
@@ -5647,19 +5619,19 @@
         <v>112</v>
       </c>
       <c r="F75" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="G75" s="9"/>
+    </row>
+    <row r="76" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="B76" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="G75" s="9"/>
-    </row>
-    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>374</v>
-      </c>
       <c r="C76" s="9" t="s">
-        <v>195</v>
+        <v>46</v>
       </c>
       <c r="D76" s="14">
         <v>0</v>
@@ -5674,133 +5646,121 @@
     </row>
     <row r="77" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D77" s="14">
+        <v>0</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F77" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="G77" s="9"/>
+    </row>
+    <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="C77" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D77" s="14">
-        <v>0</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F77" s="9" t="s">
+      <c r="B78" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="D78" s="14">
+        <v>0</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F78" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="G77" s="9"/>
-    </row>
-    <row r="78" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A78" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="C78" s="9" t="s">
+      <c r="G78" s="9"/>
+    </row>
+    <row r="79" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="C79" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D78" s="14">
-        <v>0</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F78" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="G78" s="9"/>
-    </row>
-    <row r="79" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="B79" s="9" t="s">
+      <c r="D79" s="14">
+        <v>1879</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F79" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="C79" s="9" t="s">
+      <c r="G79" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="D79" s="14">
-        <v>0</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F79" s="9" t="s">
+    </row>
+    <row r="80" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="s">
         <v>385</v>
-      </c>
-      <c r="G79" s="9"/>
-    </row>
-    <row r="80" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A80" s="9" t="s">
-        <v>386</v>
       </c>
       <c r="B80" s="9" t="s">
         <v>387</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>111</v>
+        <v>388</v>
       </c>
       <c r="D80" s="14">
-        <v>1879</v>
+        <v>0</v>
       </c>
       <c r="E80" s="8" t="s">
         <v>112</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="G80" s="9" t="s">
-        <v>389</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="G80" s="9"/>
     </row>
     <row r="81" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="D81" s="14">
+        <v>0</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F81" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="G81" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="C81" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="D81" s="14">
-        <v>0</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F81" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="G81" s="9"/>
-    </row>
-    <row r="82" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A82" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="D82" s="14">
-        <v>0</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F82" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="G82" s="9" t="s">
-        <v>397</v>
-      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="9"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="9"/>
@@ -5821,7 +5781,7 @@
       <c r="G84" s="9"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="9"/>
+      <c r="A85" s="10"/>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
       <c r="D85" s="14"/>
@@ -5830,7 +5790,7 @@
       <c r="G85" s="9"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="10"/>
+      <c r="A86" s="9"/>
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
       <c r="D86" s="14"/>
@@ -5848,7 +5808,7 @@
       <c r="G87" s="9"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="9"/>
+      <c r="A88" s="10"/>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
       <c r="D88" s="14"/>
@@ -5857,7 +5817,7 @@
       <c r="G88" s="9"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="10"/>
+      <c r="A89" s="9"/>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
       <c r="D89" s="14"/>
@@ -5875,7 +5835,7 @@
       <c r="G90" s="9"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="9"/>
+      <c r="A91" s="10"/>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
       <c r="D91" s="14"/>
@@ -5884,7 +5844,7 @@
       <c r="G91" s="9"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="10"/>
+      <c r="A92" s="9"/>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
       <c r="D92" s="14"/>
@@ -5902,7 +5862,7 @@
       <c r="G93" s="9"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="9"/>
+      <c r="A94" s="10"/>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
       <c r="D94" s="14"/>
@@ -5911,7 +5871,7 @@
       <c r="G94" s="9"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="10"/>
+      <c r="A95" s="9"/>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
       <c r="D95" s="14"/>
@@ -5929,7 +5889,7 @@
       <c r="G96" s="9"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="9"/>
+      <c r="A97" s="10"/>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
       <c r="D97" s="14"/>
@@ -5938,7 +5898,7 @@
       <c r="G97" s="9"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="10"/>
+      <c r="A98" s="9"/>
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
       <c r="D98" s="14"/>
@@ -5956,7 +5916,7 @@
       <c r="G99" s="9"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="9"/>
+      <c r="A100" s="10"/>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
       <c r="D100" s="14"/>
@@ -5965,7 +5925,7 @@
       <c r="G100" s="9"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="10"/>
+      <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
       <c r="D101" s="14"/>
@@ -5983,7 +5943,7 @@
       <c r="G102" s="9"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="9"/>
+      <c r="A103" s="10"/>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
       <c r="D103" s="14"/>
@@ -5992,7 +5952,7 @@
       <c r="G103" s="9"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="10"/>
+      <c r="A104" s="9"/>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
       <c r="D104" s="14"/>
@@ -6010,7 +5970,7 @@
       <c r="G105" s="9"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="9"/>
+      <c r="A106" s="10"/>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
       <c r="D106" s="14"/>
@@ -6019,7 +5979,7 @@
       <c r="G106" s="9"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="10"/>
+      <c r="A107" s="9"/>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
       <c r="D107" s="14"/>
@@ -6037,7 +5997,7 @@
       <c r="G108" s="9"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="9"/>
+      <c r="A109" s="10"/>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
       <c r="D109" s="14"/>
@@ -6046,7 +6006,7 @@
       <c r="G109" s="9"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="10"/>
+      <c r="A110" s="9"/>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
       <c r="D110" s="14"/>
@@ -6064,7 +6024,7 @@
       <c r="G111" s="9"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="9"/>
+      <c r="A112" s="10"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
       <c r="D112" s="14"/>
@@ -6073,7 +6033,7 @@
       <c r="G112" s="9"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="10"/>
+      <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
       <c r="D113" s="14"/>
@@ -6091,7 +6051,7 @@
       <c r="G114" s="9"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="9"/>
+      <c r="A115" s="10"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
       <c r="D115" s="14"/>
@@ -6226,11 +6186,11 @@
       <c r="G129" s="9"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="10"/>
+      <c r="A130" s="9"/>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
       <c r="D130" s="14"/>
-      <c r="E130" s="8"/>
+      <c r="E130" s="9"/>
       <c r="F130" s="9"/>
       <c r="G130" s="9"/>
     </row>
@@ -6521,15 +6481,6 @@
       <c r="E162" s="9"/>
       <c r="F162" s="9"/>
       <c r="G162" s="9"/>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="9"/>
-      <c r="B163" s="9"/>
-      <c r="C163" s="9"/>
-      <c r="D163" s="14"/>
-      <c r="E163" s="9"/>
-      <c r="F163" s="9"/>
-      <c r="G163" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6542,10 +6493,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5FA663-9236-4073-8D53-77326AF9AA97}">
-  <dimension ref="A1:G163"/>
+  <dimension ref="A1:G162"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6561,7 +6512,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -6724,7 +6675,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -6743,17 +6694,17 @@
         <v>0</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>195</v>
@@ -6765,16 +6716,16 @@
         <v>112</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>195</v>
@@ -6786,7 +6737,7 @@
         <v>112</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G20" s="9"/>
     </row>
@@ -6804,7 +6755,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -6814,7 +6765,7 @@
         <v>218</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>222</v>
+        <v>417</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>195</v>
@@ -6823,7 +6774,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -6833,7 +6784,7 @@
         <v>219</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>195</v>
@@ -6842,7 +6793,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -6852,7 +6803,7 @@
         <v>220</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>195</v>
@@ -6861,55 +6812,57 @@
         <v>0</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>221</v>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>225</v>
+        <v>65</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>195</v>
+        <v>45</v>
       </c>
       <c r="D25" s="14">
         <v>0</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>7</v>
+        <v>235</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>65</v>
+        <v>252</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="D26" s="14">
         <v>0</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="F26" s="9"/>
+        <v>112</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>269</v>
+      </c>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>195</v>
@@ -6921,16 +6874,16 @@
         <v>112</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>195</v>
@@ -6942,16 +6895,16 @@
         <v>112</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>195</v>
@@ -6963,16 +6916,16 @@
         <v>112</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>195</v>
@@ -6984,16 +6937,16 @@
         <v>112</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>195</v>
@@ -7005,16 +6958,16 @@
         <v>112</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>195</v>
@@ -7026,16 +6979,16 @@
         <v>112</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>195</v>
@@ -7047,16 +7000,16 @@
         <v>112</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G33" s="9"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>195</v>
@@ -7068,16 +7021,16 @@
         <v>112</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G34" s="9"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>195</v>
@@ -7089,16 +7042,16 @@
         <v>112</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G35" s="9"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>195</v>
@@ -7110,16 +7063,16 @@
         <v>112</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G36" s="9"/>
     </row>
-    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>195</v>
@@ -7131,16 +7084,16 @@
         <v>112</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G37" s="9"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>195</v>
@@ -7152,16 +7105,16 @@
         <v>112</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G38" s="9"/>
     </row>
-    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>195</v>
@@ -7173,16 +7126,16 @@
         <v>112</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G39" s="9"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>195</v>
@@ -7194,16 +7147,16 @@
         <v>112</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G40" s="9"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>195</v>
@@ -7215,16 +7168,16 @@
         <v>112</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G41" s="9"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>195</v>
@@ -7236,56 +7189,56 @@
         <v>112</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>256</v>
+        <v>8</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>273</v>
+        <v>227</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>195</v>
+        <v>45</v>
       </c>
       <c r="D43" s="14">
         <v>0</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>290</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="F43" s="9"/>
       <c r="G43" s="9"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>8</v>
+        <v>286</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>232</v>
+        <v>291</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="D44" s="14">
         <v>0</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="F44" s="9"/>
+        <v>112</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>296</v>
+      </c>
       <c r="G44" s="9"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>195</v>
@@ -7297,16 +7250,16 @@
         <v>112</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G45" s="9"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>195</v>
@@ -7318,16 +7271,16 @@
         <v>112</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G46" s="9"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>195</v>
@@ -7339,16 +7292,16 @@
         <v>112</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G47" s="9"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>195</v>
@@ -7360,56 +7313,56 @@
         <v>112</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G48" s="9"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>295</v>
+        <v>9</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>300</v>
+        <v>66</v>
       </c>
       <c r="C49" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" s="14">
+        <v>4</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+    </row>
+    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="C50" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="D49" s="14">
-        <v>0</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="G49" s="9"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>45</v>
-      </c>
       <c r="D50" s="14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F50" s="9"/>
+        <v>112</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>327</v>
+      </c>
       <c r="G50" s="9"/>
     </row>
     <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>195</v>
@@ -7421,16 +7374,16 @@
         <v>112</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G51" s="9"/>
     </row>
     <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>195</v>
@@ -7442,16 +7395,16 @@
         <v>112</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G52" s="9"/>
     </row>
     <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>195</v>
@@ -7463,16 +7416,16 @@
         <v>112</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G53" s="9"/>
     </row>
     <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>195</v>
@@ -7484,16 +7437,16 @@
         <v>112</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G54" s="9"/>
     </row>
     <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>195</v>
@@ -7505,16 +7458,16 @@
         <v>112</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G55" s="9"/>
     </row>
     <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>195</v>
@@ -7526,16 +7479,16 @@
         <v>112</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G56" s="9"/>
     </row>
     <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C57" s="9" t="s">
         <v>195</v>
@@ -7547,16 +7500,16 @@
         <v>112</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G57" s="9"/>
     </row>
     <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>195</v>
@@ -7568,16 +7521,16 @@
         <v>112</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G58" s="9"/>
     </row>
     <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>195</v>
@@ -7589,16 +7542,16 @@
         <v>112</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G59" s="9"/>
     </row>
     <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>195</v>
@@ -7610,16 +7563,16 @@
         <v>112</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G60" s="9"/>
     </row>
     <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C61" s="9" t="s">
         <v>195</v>
@@ -7631,16 +7584,16 @@
         <v>112</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G61" s="9"/>
     </row>
     <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>195</v>
@@ -7652,41 +7605,43 @@
         <v>112</v>
       </c>
       <c r="F62" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="G62" s="9"/>
+    </row>
+    <row r="63" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D63" s="14">
+        <v>0</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="G63" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="G62" s="9"/>
-    </row>
-    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="C63" s="9" t="s">
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="C64" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="D63" s="14">
-        <v>0</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="G63" s="9"/>
-    </row>
-    <row r="64" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>111</v>
-      </c>
       <c r="D64" s="14">
         <v>0</v>
       </c>
@@ -7694,18 +7649,16 @@
         <v>112</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="G64" s="9" t="s">
-        <v>348</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="G64" s="9"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="B65" s="9" t="s">
         <v>349</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>353</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>195</v>
@@ -7717,16 +7670,16 @@
         <v>112</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G65" s="9"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="B66" s="9" t="s">
         <v>350</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>354</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>195</v>
@@ -7738,16 +7691,16 @@
         <v>112</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G66" s="9"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="B67" s="9" t="s">
         <v>351</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>355</v>
       </c>
       <c r="C67" s="9" t="s">
         <v>195</v>
@@ -7759,113 +7712,115 @@
         <v>112</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G67" s="9"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>352</v>
+        <v>10</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>356</v>
+        <v>67</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>195</v>
+        <v>46</v>
       </c>
       <c r="D68" s="14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F68" s="9" t="s">
-        <v>360</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="F68" s="9"/>
       <c r="G68" s="9"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>67</v>
+        <v>356</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="D69" s="14">
         <v>6</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>361</v>
+        <v>68</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="D70" s="14">
-        <v>6</v>
+        <v>731</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
-        <v>12</v>
+        <v>201</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>68</v>
+        <v>357</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="D71" s="14">
         <v>731</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>201</v>
+        <v>358</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C72" s="9" t="s">
         <v>111</v>
       </c>
       <c r="D72" s="14">
-        <v>731</v>
+        <v>0</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-    </row>
-    <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C73" s="9" t="s">
         <v>111</v>
@@ -7877,39 +7832,37 @@
         <v>112</v>
       </c>
       <c r="F73" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="G73" s="9"/>
+    </row>
+    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="G73" s="9" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="9" t="s">
+      <c r="B74" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="C74" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D74" s="14">
+        <v>0</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F74" s="9" t="s">
         <v>367</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D74" s="14">
-        <v>0</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F74" s="9" t="s">
-        <v>368</v>
       </c>
       <c r="G74" s="9"/>
     </row>
     <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>195</v>
@@ -7921,19 +7874,19 @@
         <v>112</v>
       </c>
       <c r="F75" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="G75" s="9"/>
+    </row>
+    <row r="76" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="B76" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="G75" s="9"/>
-    </row>
-    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>374</v>
-      </c>
       <c r="C76" s="9" t="s">
-        <v>195</v>
+        <v>46</v>
       </c>
       <c r="D76" s="14">
         <v>0</v>
@@ -7948,131 +7901,119 @@
     </row>
     <row r="77" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D77" s="14">
+        <v>0</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F77" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="G77" s="9"/>
+    </row>
+    <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="C77" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D77" s="14">
-        <v>0</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F77" s="9" t="s">
+      <c r="B78" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="D78" s="14">
+        <v>0</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F78" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="G77" s="9"/>
-    </row>
-    <row r="78" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A78" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="C78" s="9" t="s">
+      <c r="G78" s="9"/>
+    </row>
+    <row r="79" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="C79" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D78" s="14">
-        <v>0</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F78" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="G78" s="9"/>
-    </row>
-    <row r="79" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="B79" s="9" t="s">
+      <c r="D79" s="14">
+        <v>44</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F79" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="C79" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="D79" s="14">
-        <v>0</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F79" s="9" t="s">
+      <c r="G79" s="9"/>
+    </row>
+    <row r="80" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="s">
         <v>385</v>
-      </c>
-      <c r="G79" s="9"/>
-    </row>
-    <row r="80" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A80" s="9" t="s">
-        <v>386</v>
       </c>
       <c r="B80" s="9" t="s">
         <v>387</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>111</v>
+        <v>388</v>
       </c>
       <c r="D80" s="14">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="E80" s="8" t="s">
         <v>112</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="G80" s="9"/>
     </row>
     <row r="81" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="D81" s="14">
+        <v>0</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F81" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="G81" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="C81" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="D81" s="14">
-        <v>0</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F81" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="G81" s="9"/>
-    </row>
-    <row r="82" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A82" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="D82" s="14">
-        <v>0</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F82" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="G82" s="9" t="s">
-        <v>397</v>
-      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="9"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="9"/>
@@ -8093,7 +8034,7 @@
       <c r="G84" s="9"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="9"/>
+      <c r="A85" s="10"/>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
       <c r="D85" s="14"/>
@@ -8102,7 +8043,7 @@
       <c r="G85" s="9"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="10"/>
+      <c r="A86" s="9"/>
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
       <c r="D86" s="14"/>
@@ -8120,7 +8061,7 @@
       <c r="G87" s="9"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="9"/>
+      <c r="A88" s="10"/>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
       <c r="D88" s="14"/>
@@ -8129,7 +8070,7 @@
       <c r="G88" s="9"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="10"/>
+      <c r="A89" s="9"/>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
       <c r="D89" s="14"/>
@@ -8147,7 +8088,7 @@
       <c r="G90" s="9"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="9"/>
+      <c r="A91" s="10"/>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
       <c r="D91" s="14"/>
@@ -8156,7 +8097,7 @@
       <c r="G91" s="9"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="10"/>
+      <c r="A92" s="9"/>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
       <c r="D92" s="14"/>
@@ -8174,7 +8115,7 @@
       <c r="G93" s="9"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="9"/>
+      <c r="A94" s="10"/>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
       <c r="D94" s="14"/>
@@ -8183,7 +8124,7 @@
       <c r="G94" s="9"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="10"/>
+      <c r="A95" s="9"/>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
       <c r="D95" s="14"/>
@@ -8201,7 +8142,7 @@
       <c r="G96" s="9"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="9"/>
+      <c r="A97" s="10"/>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
       <c r="D97" s="14"/>
@@ -8210,7 +8151,7 @@
       <c r="G97" s="9"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="10"/>
+      <c r="A98" s="9"/>
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
       <c r="D98" s="14"/>
@@ -8228,7 +8169,7 @@
       <c r="G99" s="9"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="9"/>
+      <c r="A100" s="10"/>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
       <c r="D100" s="14"/>
@@ -8237,7 +8178,7 @@
       <c r="G100" s="9"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="10"/>
+      <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
       <c r="D101" s="14"/>
@@ -8255,7 +8196,7 @@
       <c r="G102" s="9"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="9"/>
+      <c r="A103" s="10"/>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
       <c r="D103" s="14"/>
@@ -8264,7 +8205,7 @@
       <c r="G103" s="9"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="10"/>
+      <c r="A104" s="9"/>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
       <c r="D104" s="14"/>
@@ -8282,7 +8223,7 @@
       <c r="G105" s="9"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="9"/>
+      <c r="A106" s="10"/>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
       <c r="D106" s="14"/>
@@ -8291,7 +8232,7 @@
       <c r="G106" s="9"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="10"/>
+      <c r="A107" s="9"/>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
       <c r="D107" s="14"/>
@@ -8309,7 +8250,7 @@
       <c r="G108" s="9"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="9"/>
+      <c r="A109" s="10"/>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
       <c r="D109" s="14"/>
@@ -8318,7 +8259,7 @@
       <c r="G109" s="9"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="10"/>
+      <c r="A110" s="9"/>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
       <c r="D110" s="14"/>
@@ -8336,7 +8277,7 @@
       <c r="G111" s="9"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="9"/>
+      <c r="A112" s="10"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
       <c r="D112" s="14"/>
@@ -8345,7 +8286,7 @@
       <c r="G112" s="9"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="10"/>
+      <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
       <c r="D113" s="14"/>
@@ -8363,7 +8304,7 @@
       <c r="G114" s="9"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="9"/>
+      <c r="A115" s="10"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
       <c r="D115" s="14"/>
@@ -8498,11 +8439,11 @@
       <c r="G129" s="9"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="10"/>
+      <c r="A130" s="9"/>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
       <c r="D130" s="14"/>
-      <c r="E130" s="8"/>
+      <c r="E130" s="9"/>
       <c r="F130" s="9"/>
       <c r="G130" s="9"/>
     </row>
@@ -8793,15 +8734,6 @@
       <c r="E162" s="9"/>
       <c r="F162" s="9"/>
       <c r="G162" s="9"/>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="9"/>
-      <c r="B163" s="9"/>
-      <c r="C163" s="9"/>
-      <c r="D163" s="14"/>
-      <c r="E163" s="9"/>
-      <c r="F163" s="9"/>
-      <c r="G163" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8815,7 +8747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{821BEF25-936D-49B3-974A-DF3226A02EA4}">
   <dimension ref="A1:G163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection sqref="A1:G14"/>
     </sheetView>
   </sheetViews>
@@ -8832,7 +8764,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -8983,10 +8915,10 @@
     </row>
     <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>111</v>
@@ -8995,19 +8927,19 @@
         <v>0</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>111</v>
@@ -9016,19 +8948,19 @@
         <v>0</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>111</v>
@@ -9037,19 +8969,19 @@
         <v>0</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>404</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>409</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>111</v>
@@ -9058,21 +8990,21 @@
         <v>0</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>405</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>410</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>46</v>
@@ -9081,19 +9013,19 @@
         <v>0</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>406</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>411</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>45</v>
@@ -9102,10 +9034,10 @@
         <v>0</v>
       </c>
       <c r="E22" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>412</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>417</v>
       </c>
       <c r="G22" s="9"/>
     </row>
